--- a/data/fast/suite/fast_auto_product_screen.xlsx
+++ b/data/fast/suite/fast_auto_product_screen.xlsx
@@ -1574,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
